--- a/QBUS2310/Assignment 2/Q2.xlsx
+++ b/QBUS2310/Assignment 2/Q2.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16600" windowHeight="11380"/>
+    <workbookView windowWidth="15200" windowHeight="11380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>Activity</t>
   </si>
@@ -109,16 +109,19 @@
     <t>Path</t>
   </si>
   <si>
-    <t>I(50)</t>
+    <t>2*I (2*50)</t>
   </si>
   <si>
     <t>H(200)</t>
   </si>
   <si>
-    <t>F(300)</t>
-  </si>
-  <si>
-    <t>E(150)</t>
+    <t>2*F(2*300)</t>
+  </si>
+  <si>
+    <t>3*E(3*150)</t>
+  </si>
+  <si>
+    <t>2*B(2*500)</t>
   </si>
   <si>
     <t>BFHI</t>
@@ -150,12 +153,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,24 +197,42 @@
     <font>
       <b/>
       <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,14 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -246,7 +259,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -261,31 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,7 +330,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -308,7 +338,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,36 +367,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -380,12 +394,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -398,19 +430,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,139 +550,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,6 +695,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -737,6 +760,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -760,175 +792,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,25 +985,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,6 +1029,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1082,7 +1111,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>641985</xdr:colOff>
+      <xdr:colOff>613410</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>154940</xdr:rowOff>
     </xdr:to>
@@ -1093,7 +1122,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847215" y="3444240"/>
+          <a:off x="1974215" y="3444240"/>
           <a:ext cx="606425" cy="734060"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1129,7 +1158,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>631190</xdr:colOff>
+      <xdr:colOff>613410</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>102235</xdr:rowOff>
     </xdr:to>
@@ -1140,7 +1169,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1857375" y="4189095"/>
+          <a:off x="1984375" y="4189095"/>
           <a:ext cx="596265" cy="383540"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1187,7 +1216,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4307840" y="3236595"/>
+          <a:off x="4942840" y="3236595"/>
           <a:ext cx="595630" cy="302895"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1217,7 +1246,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>648335</xdr:colOff>
+      <xdr:colOff>613410</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
@@ -1234,8 +1263,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4293870" y="3667760"/>
-          <a:ext cx="609600" cy="484505"/>
+          <a:off x="4801870" y="3667760"/>
+          <a:ext cx="736600" cy="484505"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1270,7 +1299,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619760</xdr:colOff>
+      <xdr:colOff>613410</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
@@ -1281,7 +1310,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4311015" y="4210050"/>
+          <a:off x="4946015" y="4210050"/>
           <a:ext cx="596265" cy="405130"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1328,7 +1357,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4307840" y="4721860"/>
+          <a:off x="4942840" y="4721860"/>
           <a:ext cx="585470" cy="292735"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1375,7 +1404,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7154545" y="3444240"/>
+          <a:off x="7789545" y="3444240"/>
           <a:ext cx="583565" cy="607060"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1422,7 +1451,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7116445" y="4157345"/>
+          <a:off x="7751445" y="4157345"/>
           <a:ext cx="631825" cy="446405"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1469,7 +1498,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9881235" y="4146550"/>
+          <a:off x="10516235" y="4146550"/>
           <a:ext cx="606425" cy="10795"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1759,13 +1788,15 @@
   <sheetPr/>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="8" width="8.625" customWidth="1"/>
+    <col min="1" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="7" width="10.4107142857143" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
     <col min="9" max="9" width="12.7857142857143"/>
     <col min="12" max="13" width="10.1160714285714" customWidth="1"/>
   </cols>
@@ -1814,7 +1845,7 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <f>G2-C2</f>
+        <f t="shared" ref="F2:F10" si="1">G2-C2</f>
         <v>1</v>
       </c>
       <c r="G2">
@@ -1844,7 +1875,7 @@
         <v>23</v>
       </c>
       <c r="F3">
-        <f>G3-C3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3">
@@ -1852,7 +1883,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H10" si="1">G3-E3</f>
+        <f t="shared" ref="H3:H10" si="2">G3-E3</f>
         <v>0</v>
       </c>
     </row>
@@ -1874,7 +1905,7 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <f>G4-C4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G4">
@@ -1882,7 +1913,7 @@
         <v>22</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1904,7 +1935,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <f>G5-C5</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G5">
@@ -1912,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -1935,7 +1966,7 @@
         <v>21</v>
       </c>
       <c r="F6">
-        <f>G6-C6</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="G6">
@@ -1943,7 +1974,7 @@
         <v>22</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1966,7 +1997,7 @@
         <v>29</v>
       </c>
       <c r="F7">
-        <f>G7-C7</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="G7">
@@ -1974,7 +2005,7 @@
         <v>29</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1997,7 +2028,7 @@
         <v>28</v>
       </c>
       <c r="F8">
-        <f>G8-C8</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="G8">
@@ -2005,7 +2036,7 @@
         <v>29</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2028,7 +2059,7 @@
         <v>33</v>
       </c>
       <c r="F9">
-        <f>G9-C9</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="G9">
@@ -2036,7 +2067,7 @@
         <v>33</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2054,20 +2085,20 @@
         <f>E9</f>
         <v>33</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="22">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="F10">
-        <f>G10-C10</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="22">
         <f>E10</f>
         <v>37</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2346,6 +2377,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="25" ht="18.35"/>
     <row r="26" ht="18.75" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>0</v>
@@ -2378,7 +2410,7 @@
       <c r="F27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2398,11 +2430,11 @@
       <c r="E28" s="11">
         <v>15000</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="24">
         <f>(E28-C28)/G28</f>
         <v>1333.33333333333</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="25">
         <f>B28-D28</f>
         <v>3</v>
       </c>
@@ -2423,12 +2455,12 @@
       <c r="E29" s="11">
         <v>6000</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="24">
         <f>(E29-C29)/G29</f>
         <v>500</v>
       </c>
-      <c r="G29" s="23">
-        <f t="shared" ref="G29:G36" si="2">B29-D29</f>
+      <c r="G29" s="25">
+        <f t="shared" ref="G29:G36" si="3">B29-D29</f>
         <v>2</v>
       </c>
     </row>
@@ -2448,12 +2480,12 @@
       <c r="E30" s="11">
         <v>3500</v>
       </c>
-      <c r="F30" s="22">
-        <f t="shared" ref="F29:F36" si="3">(E30-C30)/G30</f>
+      <c r="F30" s="24">
+        <f t="shared" ref="F29:F36" si="4">(E30-C30)/G30</f>
         <v>166.666666666667</v>
       </c>
-      <c r="G30" s="23">
-        <f t="shared" si="2"/>
+      <c r="G30" s="25">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -2473,37 +2505,37 @@
       <c r="E31" s="11">
         <v>2000</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="24">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G31" s="25">
         <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="G31" s="23">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="32" ht="18.75" spans="1:7">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="13">
         <v>8</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="13">
         <v>750</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="13">
         <v>5</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="26">
         <v>1200</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="27">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="G32" s="28">
         <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="G32" s="23">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2520,15 +2552,15 @@
       <c r="D33" s="13">
         <v>4</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="26">
         <v>1200</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="27">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G33" s="28">
         <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="G33" s="26">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2548,12 +2580,12 @@
       <c r="E34" s="11">
         <v>1500</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="24">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G34" s="25">
         <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="G34" s="23">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2573,12 +2605,12 @@
       <c r="E35" s="13">
         <v>450</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="27">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="G35" s="28">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="G35" s="26">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2598,12 +2630,12 @@
       <c r="E36" s="13">
         <v>300</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="27">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G36" s="28">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="G36" s="26">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2621,7 +2653,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="39" ht="18" spans="1:8">
+    <row r="39" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>30</v>
       </c>
@@ -2632,250 +2664,224 @@
         <v>31</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" ht="18" spans="1:8">
+      <c r="G39" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="17">
         <f>B29+B33+B35+B36</f>
         <v>37</v>
       </c>
       <c r="C40" s="17">
-        <f>B40-1</f>
-        <v>36</v>
+        <f>B40-1*2</f>
+        <v>35</v>
       </c>
       <c r="D40" s="17">
         <f>C40-1</f>
-        <v>35</v>
-      </c>
-      <c r="E40" s="17">
-        <f>D40-1</f>
         <v>34</v>
       </c>
+      <c r="E40" s="19">
+        <f>D40-2</f>
+        <v>32</v>
+      </c>
       <c r="F40" s="17">
-        <f>E40-1</f>
-        <v>33</v>
-      </c>
-      <c r="G40" s="15">
-        <f>F40-1</f>
+        <f>E40</f>
         <v>32</v>
       </c>
-      <c r="H40" s="17">
-        <f>G40</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" ht="18" spans="1:8">
+      <c r="G40" s="30">
+        <f>F40-2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="15">
+        <v>37</v>
+      </c>
+      <c r="B41" s="18">
         <f>B28+B32+B33+B35+B36</f>
         <v>35</v>
       </c>
-      <c r="C41" s="15">
-        <f>B41-1</f>
-        <v>34</v>
-      </c>
-      <c r="D41" s="15">
+      <c r="C41" s="18">
+        <f>B41-1*2</f>
+        <v>33</v>
+      </c>
+      <c r="D41" s="19">
         <f>C41-1</f>
-        <v>33</v>
-      </c>
-      <c r="E41" s="15">
-        <f>D41-1</f>
         <v>32</v>
       </c>
-      <c r="F41" s="15">
-        <f>E41-1</f>
-        <v>31</v>
-      </c>
-      <c r="G41" s="15">
-        <f>F41-1</f>
+      <c r="E41" s="18">
+        <f>D41-2</f>
         <v>30</v>
       </c>
-      <c r="H41" s="15">
-        <f>G41-1</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" ht="18" spans="1:8">
+      <c r="F41" s="19">
+        <f>E41-3</f>
+        <v>27</v>
+      </c>
+      <c r="G41" s="31">
+        <f>F41</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="15">
+        <v>38</v>
+      </c>
+      <c r="B42" s="18">
         <f>B28+B32+B34+B35+B36</f>
         <v>36</v>
       </c>
-      <c r="C42" s="15">
-        <f>B42-1</f>
-        <v>35</v>
-      </c>
-      <c r="D42" s="15">
+      <c r="C42" s="18">
+        <f>B42-1*2</f>
+        <v>34</v>
+      </c>
+      <c r="D42" s="19">
         <f>C42-1</f>
-        <v>34</v>
-      </c>
-      <c r="E42" s="15">
-        <f>D42-1</f>
         <v>33</v>
       </c>
-      <c r="F42" s="17">
-        <f>E42</f>
+      <c r="E42" s="17">
+        <f>D42</f>
         <v>33</v>
       </c>
-      <c r="G42" s="17">
+      <c r="F42" s="19">
+        <f>E42-3</f>
+        <v>30</v>
+      </c>
+      <c r="G42" s="19">
         <f>F42</f>
-        <v>33</v>
-      </c>
-      <c r="H42" s="17">
-        <f>G42-1</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" ht="18" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="15">
+        <v>39</v>
+      </c>
+      <c r="B43" s="18">
         <f>B31+B32+B33+B35+B36</f>
         <v>30</v>
       </c>
-      <c r="C43" s="15">
-        <f>B43-1</f>
-        <v>29</v>
-      </c>
-      <c r="D43" s="15">
+      <c r="C43" s="18">
+        <f>B43-1*2</f>
+        <v>28</v>
+      </c>
+      <c r="D43" s="19">
         <f>C43-1</f>
-        <v>28</v>
-      </c>
-      <c r="E43" s="15">
-        <f>D43-1</f>
         <v>27</v>
       </c>
-      <c r="F43" s="15">
-        <f>E43-1</f>
-        <v>26</v>
-      </c>
-      <c r="G43" s="15">
-        <f>F43-1</f>
+      <c r="E43" s="18">
+        <f>D43-2</f>
         <v>25</v>
       </c>
-      <c r="H43" s="15">
-        <f>G43-1</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" ht="18" spans="1:8">
+      <c r="F43" s="19">
+        <f>E43-3</f>
+        <v>22</v>
+      </c>
+      <c r="G43" s="31">
+        <f>F43</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="15">
+        <v>40</v>
+      </c>
+      <c r="B44" s="18">
         <f>B31+B32+B34+B35+B36</f>
         <v>31</v>
       </c>
-      <c r="C44" s="15">
-        <f>B44-1</f>
-        <v>30</v>
-      </c>
-      <c r="D44" s="15">
+      <c r="C44" s="18">
+        <f>B44-1*2</f>
+        <v>29</v>
+      </c>
+      <c r="D44" s="19">
         <f>C44-1</f>
-        <v>29</v>
-      </c>
-      <c r="E44" s="15">
-        <f>D44-1</f>
         <v>28</v>
       </c>
-      <c r="F44" s="15">
-        <f>E44</f>
+      <c r="E44" s="18">
+        <f>D44</f>
         <v>28</v>
       </c>
-      <c r="G44" s="15">
+      <c r="F44" s="19">
+        <f>E44-3</f>
+        <v>25</v>
+      </c>
+      <c r="G44" s="31">
         <f>F44</f>
-        <v>28</v>
-      </c>
-      <c r="H44" s="15">
-        <f>G44-1</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" ht="18" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="15">
+        <v>41</v>
+      </c>
+      <c r="B45" s="18">
         <f>B30+B34+B35+B36</f>
         <v>33</v>
       </c>
-      <c r="C45" s="15">
-        <f>B45-1</f>
-        <v>32</v>
-      </c>
-      <c r="D45" s="15">
+      <c r="C45" s="18">
+        <f>B45-1*2</f>
+        <v>31</v>
+      </c>
+      <c r="D45" s="19">
         <f>C45-1</f>
-        <v>31</v>
-      </c>
-      <c r="E45" s="15">
-        <f>D45-1</f>
         <v>30</v>
       </c>
-      <c r="F45" s="15">
+      <c r="E45" s="18">
+        <f>D45</f>
+        <v>30</v>
+      </c>
+      <c r="F45" s="19">
         <f>E45</f>
         <v>30</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="30">
         <f>F45</f>
         <v>30</v>
       </c>
-      <c r="H45" s="15">
-        <f>G45</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="15">
-        <v>50</v>
-      </c>
-      <c r="D46" s="15">
-        <v>50</v>
-      </c>
-      <c r="E46" s="15">
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="18">
+        <f>50*2</f>
+        <v>100</v>
+      </c>
+      <c r="D46" s="18">
         <v>200</v>
       </c>
-      <c r="F46" s="15">
-        <v>300</v>
-      </c>
-      <c r="G46" s="15">
-        <v>300</v>
-      </c>
-      <c r="H46" s="15">
-        <v>150</v>
+      <c r="E46" s="18">
+        <f>2*300</f>
+        <v>600</v>
+      </c>
+      <c r="F46" s="19">
+        <f>3*150</f>
+        <v>450</v>
+      </c>
+      <c r="G46" s="31">
+        <f>2*500</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <f>SUM(C28:C36)+SUM(C46:H46)</f>
-        <v>24350</v>
+        <f>SUM(C28:C36)+SUM(C46:G46)</f>
+        <v>25650</v>
       </c>
     </row>
   </sheetData>
@@ -2895,9 +2901,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="G42:G43 F41:F42 F43" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>